--- a/trunk/my doc/files/Jie/obd團.xlsx
+++ b/trunk/my doc/files/Jie/obd團.xlsx
@@ -385,7 +385,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -468,23 +468,23 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1762</v>
+        <v>1790</v>
       </c>
       <c r="B7">
         <f>$A7*B4</f>
-        <v>487.93846153846158</v>
+        <v>495.69230769230774</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:E7" si="1">$A7*C4</f>
-        <v>623.47692307692307</v>
+        <v>633.38461538461547</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>325.2923076923077</v>
+        <v>330.46153846153845</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>325.2923076923077</v>
+        <v>330.46153846153845</v>
       </c>
     </row>
   </sheetData>
